--- a/biology/Zoologie/Acosmeryx_castanea/Acosmeryx_castanea.xlsx
+++ b/biology/Zoologie/Acosmeryx_castanea/Acosmeryx_castanea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acosmeryx castanea est une espèce de papillons de la famille des Sphingidae, sous-famille des Macroglossinae, de la tribu des Macroglossini et du genre Acosmeryx. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure varie de 75 à 91 mm. L'espèce est très proche d'Acosmeryx omissa mais Les ailes sont moins allongées, non dentées, ou tout au plus avec des dents vestigiales. Le torax gris-brun, ombré de gris-clair;les  marques sombres du thorax et de l'abdomen sont indistinctes. La face ventrale du thorax est brun clair, celle de l'abdomen est de couleur rouille.  
 			Face dorsale du mâle(coll.MHNT)
@@ -544,7 +558,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Répartition
 L’espèce est connue dans l'Est et dans le Sud de la Chine, à Taiwan, en Corée du Sud et au Japon.
@@ -576,7 +592,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">À Hong Kong, les adultes volent de mars à fin septembre. En Corée et au Japon, les adultes volent de la fin juin à la mi-août. Il y a plusieurs générations par année.
 Les chenilles se nourrissent d'Ampelopsis glandulosa et de Cayratia japonica.
@@ -608,12 +626,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Acosmeryx castanea  a été décrite par les entomologistes Lionel Walter Rothschild et Karl Jordan en 1903[1].
-La localité type est : Yokohama au Japon.
-Synonymie
-Acosmeryx castanea conspicua Mell, 1922
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'espèce Acosmeryx castanea  a été décrite par les entomologistes Lionel Walter Rothschild et Karl Jordan en 1903.
+La localité type est : Yokohama au Japon.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Acosmeryx_castanea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acosmeryx_castanea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Acosmeryx castanea conspicua Mell, 1922
 Acosmeryx castanea kuangtungensis Mell, 1922
 Acosmeryx castanea distincta Clark, 1928</t>
         </is>
